--- a/conversion_test_cases.xlsx
+++ b/conversion_test_cases.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Justin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Justin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="52" documentId="11_95198880BBF39F34B1B4386D3DA9BE71C10FCDA9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1AA08CCE-5AF8-4C89-BA04-61E67864916D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_67D260AF8B29C2F31D18A273F49FD417CD1C735E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12195" windowHeight="9975" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="example to be deleted" sheetId="2" r:id="rId1"/>
@@ -19,20 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'example to be deleted'!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="152511" calcCompleted="0"/>
 </workbook>
 </file>
 
@@ -1025,7 +1012,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="62">
   <si>
     <t>Program
 or module:</t>
@@ -1215,6 +1202,36 @@
   <si>
     <t>????? Tester's Name ?????
 ????? Date ?????</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Large integer string              Inputs: 12345678901.123456789 </t>
+  </si>
+  <si>
+    <t>12345678901.123457.</t>
+  </si>
+  <si>
+    <t>Function accepts integer value greater than 10 digits.</t>
+  </si>
+  <si>
+    <t>Testing fraction / special characters</t>
+  </si>
+  <si>
+    <t>3/5 4/9 $3</t>
+  </si>
+  <si>
+    <t>3.000000 , 4.000000, 0.000000</t>
+  </si>
+  <si>
+    <t>Function does not accept fractions and considers a \ as a special character and therefore does not process it. Still processes special characters such as dollar signs as 0 therefore should be considered if program is used for financial programs.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + Edge Case. Test minimum input size</t>
+  </si>
+  <si>
+    <t>.23      .44 . 96</t>
+  </si>
+  <si>
+    <t>0.23000, .44000 . 96000</t>
   </si>
   <si>
     <t>Version 3</t>
@@ -1590,7 +1607,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1702,6 +1719,12 @@
     </xf>
     <xf numFmtId="14" fontId="17" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1720,7 +1743,49 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="16">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFB4B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFB4E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFB4B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFB4E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFB4B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFB4E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2100,22 +2165,22 @@
       <c r="B1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="40" t="str">
+      <c r="C1" s="42" t="str">
         <f>"Do not save or use this worksheet – sample test cases only"</f>
         <v>Do not save or use this worksheet – sample test cases only</v>
       </c>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
     </row>
     <row r="2" spans="1:8" s="11" customFormat="1" ht="35.25" customHeight="1" thickBot="1">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
       <c r="E2" s="31"/>
       <c r="F2" s="18" t="s">
         <v>3</v>
@@ -2279,18 +2344,18 @@
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="E3">
-    <cfRule type="expression" dxfId="9" priority="9">
+    <cfRule type="expression" dxfId="15" priority="9">
       <formula>ISNUMBER(SEARCH("PASS",$E3))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="10">
+    <cfRule type="expression" dxfId="14" priority="10">
       <formula>ISNUMBER(SEARCH("FAIL",$E3))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F1048576">
-    <cfRule type="expression" dxfId="7" priority="5">
+    <cfRule type="expression" dxfId="13" priority="5">
       <formula>ISNUMBER(SEARCH("PASS",$F4))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="6">
+    <cfRule type="expression" dxfId="12" priority="6">
       <formula>ISNUMBER(SEARCH("FAIL",$F4))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2305,8 +2370,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2314,37 +2379,37 @@
     <col min="1" max="1" width="14.28515625" customWidth="1"/>
     <col min="2" max="2" width="20.5703125" style="3" customWidth="1"/>
     <col min="3" max="3" width="29.42578125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="27.28515625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="28.85546875" style="3" customWidth="1"/>
     <col min="5" max="5" width="19.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.28515625" style="11" customWidth="1"/>
     <col min="7" max="7" width="28.7109375" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="36.75" thickBot="1">
+    <row r="1" spans="1:7" ht="26.25" thickBot="1">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32" t="e">
+      <c r="B1" s="32" t="str">
         <f ca="1">MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,255)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C1" s="40" t="e">
+        <v>Conversion</v>
+      </c>
+      <c r="C1" s="42" t="str">
         <f ca="1">"Save As " &amp; B1  &amp; "_test_cases.xlsx"</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
+        <v>Save As Conversion_test_cases.xlsx</v>
+      </c>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
     </row>
     <row r="2" spans="1:7" ht="26.25" thickBot="1">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
       <c r="F2" s="20" t="s">
         <v>3</v>
       </c>
@@ -2375,7 +2440,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="72">
+    <row r="4" spans="1:7" ht="76.5">
       <c r="A4" s="23" t="s">
         <v>35</v>
       </c>
@@ -2466,13 +2531,13 @@
       <c r="G9" s="27"/>
     </row>
     <row r="10" spans="1:7" ht="26.25" thickBot="1">
-      <c r="A10" s="38" t="s">
+      <c r="A10" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="39"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
       <c r="F10" s="20" t="s">
         <v>3</v>
       </c>
@@ -2503,23 +2568,65 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15">
-      <c r="A12" s="28"/>
-      <c r="B12" s="29"/>
+    <row r="12" spans="1:7" ht="56.25" customHeight="1">
+      <c r="A12" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="38" t="s">
+        <v>52</v>
+      </c>
       <c r="E12" s="3"/>
-      <c r="F12" s="25"/>
-    </row>
-    <row r="13" spans="1:7" ht="15">
-      <c r="A13" s="28"/>
-      <c r="B13" s="29"/>
+      <c r="F12" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="114.75">
+      <c r="A13" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>56</v>
+      </c>
       <c r="E13" s="3"/>
-      <c r="F13" s="25"/>
-    </row>
-    <row r="14" spans="1:7" ht="15">
-      <c r="A14" s="28"/>
-      <c r="B14" s="29"/>
+      <c r="F13" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="23" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="25.5">
+      <c r="A14" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" s="39" t="s">
+        <v>60</v>
+      </c>
       <c r="E14" s="3"/>
-      <c r="F14" s="25"/>
+      <c r="F14" s="25" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="15" spans="1:7" ht="15">
       <c r="A15" s="28"/>
@@ -2540,13 +2647,13 @@
       <c r="F17" s="25"/>
     </row>
     <row r="18" spans="1:7" ht="26.25" thickBot="1">
-      <c r="A18" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="B18" s="39"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
+      <c r="A18" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
       <c r="F18" s="20" t="s">
         <v>3</v>
       </c>
@@ -2638,28 +2745,52 @@
     <mergeCell ref="A18:E18"/>
     <mergeCell ref="C1:G1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F6:F1048576">
-    <cfRule type="expression" dxfId="5" priority="5">
+  <conditionalFormatting sqref="F6:F11 F15:F1048576">
+    <cfRule type="expression" dxfId="11" priority="11">
       <formula>ISNUMBER(SEARCH("PASS",$F6))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="6">
+    <cfRule type="expression" dxfId="10" priority="12">
       <formula>ISNUMBER(SEARCH("FAIL",$F6))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="9" priority="9">
       <formula>ISNUMBER(SEARCH("PASS",$F5))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="4">
+    <cfRule type="expression" dxfId="8" priority="10">
       <formula>ISNUMBER(SEARCH("FAIL",$F5))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="7" priority="7">
       <formula>ISNUMBER(SEARCH("PASS",$F4))</formula>
     </cfRule>
+    <cfRule type="expression" dxfId="6" priority="8">
+      <formula>ISNUMBER(SEARCH("FAIL",$F4))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F12">
+    <cfRule type="expression" dxfId="5" priority="5">
+      <formula>ISNUMBER(SEARCH("PASS",$F12))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="6">
+      <formula>ISNUMBER(SEARCH("FAIL",$F12))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F13">
+    <cfRule type="expression" dxfId="3" priority="3">
+      <formula>ISNUMBER(SEARCH("PASS",$F13))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="4">
+      <formula>ISNUMBER(SEARCH("FAIL",$F13))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F14">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>ISNUMBER(SEARCH("PASS",$F14))</formula>
+    </cfRule>
     <cfRule type="expression" dxfId="0" priority="2">
-      <formula>ISNUMBER(SEARCH("FAIL",$F4))</formula>
+      <formula>ISNUMBER(SEARCH("FAIL",$F14))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2669,6 +2800,25 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="168b1131-499a-4d9c-b7a6-eed7c13a0eb7">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100EEBC3F65A651B1459AB5AB90AEA909E9" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d8a047d7c98efccd97a0dbd2f09f18d0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="168b1131-499a-4d9c-b7a6-eed7c13a0eb7" xmlns:ns3="ae34d4cc-e2bc-471b-8383-222203d71c04" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6f503e00d73f079894179059ddc44870" ns2:_="" ns3:_="">
     <xsd:import namespace="168b1131-499a-4d9c-b7a6-eed7c13a0eb7"/>
@@ -2861,27 +3011,8 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="168b1131-499a-4d9c-b7a6-eed7c13a0eb7">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F36BB46-C75E-421E-B3D3-55CE8E16DB6F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3B8A36E-7436-4AB6-B651-49CE95423A4F}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2889,5 +3020,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3B8A36E-7436-4AB6-B651-49CE95423A4F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{378D22BF-154E-40C7-848E-E514842C55E9}"/>
 </file>